--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H2">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I2">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J2">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N2">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O2">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P2">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q2">
-        <v>35.95875919482855</v>
+        <v>42.46932405259134</v>
       </c>
       <c r="R2">
-        <v>323.6288327534569</v>
+        <v>382.223916473322</v>
       </c>
       <c r="S2">
-        <v>0.006549460084049109</v>
+        <v>0.01656898475454175</v>
       </c>
       <c r="T2">
-        <v>0.006549460084049109</v>
+        <v>0.01656898475454175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H3">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I3">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J3">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.524507</v>
       </c>
       <c r="O3">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P3">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q3">
-        <v>90.46492841757544</v>
+        <v>76.80571545995578</v>
       </c>
       <c r="R3">
-        <v>814.1843557581789</v>
+        <v>691.251439139602</v>
       </c>
       <c r="S3">
-        <v>0.01647711019357088</v>
+        <v>0.02996498665582199</v>
       </c>
       <c r="T3">
-        <v>0.01647711019357088</v>
+        <v>0.02996498665582199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H4">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I4">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J4">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N4">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O4">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P4">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q4">
-        <v>68.38432152633122</v>
+        <v>26.52897057185712</v>
       </c>
       <c r="R4">
-        <v>615.4588937369809</v>
+        <v>238.760735146714</v>
       </c>
       <c r="S4">
-        <v>0.01245539040390189</v>
+        <v>0.01035001424591704</v>
       </c>
       <c r="T4">
-        <v>0.01245539040390189</v>
+        <v>0.01035001424591704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H5">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I5">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J5">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N5">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O5">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P5">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q5">
-        <v>11.51471563772833</v>
+        <v>21.41813033969889</v>
       </c>
       <c r="R5">
-        <v>103.632440739555</v>
+        <v>192.76317305729</v>
       </c>
       <c r="S5">
-        <v>0.002097268430199997</v>
+        <v>0.008356070716590691</v>
       </c>
       <c r="T5">
-        <v>0.002097268430199997</v>
+        <v>0.00835607071659069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H6">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I6">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J6">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N6">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O6">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P6">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q6">
-        <v>58.65143455871466</v>
+        <v>9.220864302386001</v>
       </c>
       <c r="R6">
-        <v>527.8629110284319</v>
+        <v>82.987778721474</v>
       </c>
       <c r="S6">
-        <v>0.01068266086249619</v>
+        <v>0.003597428578348419</v>
       </c>
       <c r="T6">
-        <v>0.01068266086249619</v>
+        <v>0.003597428578348418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N7">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O7">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P7">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q7">
-        <v>179.3011367556921</v>
+        <v>249.4252402160937</v>
       </c>
       <c r="R7">
-        <v>1613.710230801229</v>
+        <v>2244.827161944843</v>
       </c>
       <c r="S7">
-        <v>0.03265756840616801</v>
+        <v>0.09731077889115135</v>
       </c>
       <c r="T7">
-        <v>0.03265756840616801</v>
+        <v>0.09731077889115136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.524507</v>
       </c>
       <c r="O8">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P8">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q8">
         <v>451.085211642296</v>
@@ -948,10 +948,10 @@
         <v>4059.766904780663</v>
       </c>
       <c r="S8">
-        <v>0.08215980346120916</v>
+        <v>0.1759864128151671</v>
       </c>
       <c r="T8">
-        <v>0.08215980346120917</v>
+        <v>0.1759864128151671</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N9">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O9">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P9">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q9">
-        <v>340.9846963713175</v>
+        <v>155.8064557226546</v>
       </c>
       <c r="R9">
-        <v>3068.862267341858</v>
+        <v>1402.258101503891</v>
       </c>
       <c r="S9">
-        <v>0.06210630478252788</v>
+        <v>0.0607863404261159</v>
       </c>
       <c r="T9">
-        <v>0.06210630478252788</v>
+        <v>0.06078634042611589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N10">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O10">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P10">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q10">
-        <v>57.41581882948167</v>
+        <v>125.7901420409595</v>
       </c>
       <c r="R10">
-        <v>516.7423694653351</v>
+        <v>1132.111278368635</v>
       </c>
       <c r="S10">
-        <v>0.01045760816103928</v>
+        <v>0.04907577392019093</v>
       </c>
       <c r="T10">
-        <v>0.01045760816103929</v>
+        <v>0.04907577392019093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>426.244309</v>
       </c>
       <c r="I11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N11">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O11">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P11">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q11">
-        <v>292.4536086395893</v>
+        <v>54.15476570275901</v>
       </c>
       <c r="R11">
-        <v>2632.082477756304</v>
+        <v>487.3928913248311</v>
       </c>
       <c r="S11">
-        <v>0.05326694466411337</v>
+        <v>0.02112794369422146</v>
       </c>
       <c r="T11">
-        <v>0.05326694466411337</v>
+        <v>0.02112794369422146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H12">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N12">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O12">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P12">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q12">
-        <v>264.9078354831199</v>
+        <v>115.214764895636</v>
       </c>
       <c r="R12">
-        <v>2384.170519348079</v>
+        <v>1036.932884060724</v>
       </c>
       <c r="S12">
-        <v>0.04824980987380853</v>
+        <v>0.04494989561618476</v>
       </c>
       <c r="T12">
-        <v>0.04824980987380852</v>
+        <v>0.04494989561618477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H13">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.524507</v>
       </c>
       <c r="O13">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P13">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q13">
-        <v>666.4542634630681</v>
+        <v>208.3657474369427</v>
       </c>
       <c r="R13">
-        <v>5998.088371167612</v>
+        <v>1875.291726932484</v>
       </c>
       <c r="S13">
-        <v>0.1213867133942558</v>
+        <v>0.08129182579821978</v>
       </c>
       <c r="T13">
-        <v>0.1213867133942558</v>
+        <v>0.08129182579821981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H14">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N14">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O14">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P14">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q14">
-        <v>503.7866434258785</v>
+        <v>71.97027914959868</v>
       </c>
       <c r="R14">
-        <v>4534.079790832907</v>
+        <v>647.732512346388</v>
       </c>
       <c r="S14">
-        <v>0.09175874212226429</v>
+        <v>0.02807848922985281</v>
       </c>
       <c r="T14">
-        <v>0.09175874212226429</v>
+        <v>0.02807848922985281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H15">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N15">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O15">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P15">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q15">
-        <v>84.82880010589834</v>
+        <v>58.10511249335333</v>
       </c>
       <c r="R15">
-        <v>763.459200953085</v>
+        <v>522.94601244018</v>
       </c>
       <c r="S15">
-        <v>0.01545055649059392</v>
+        <v>0.02266913223933362</v>
       </c>
       <c r="T15">
-        <v>0.01545055649059392</v>
+        <v>0.02266913223933362</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H16">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N16">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O16">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P16">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q16">
-        <v>432.0845581113226</v>
+        <v>25.015225375812</v>
       </c>
       <c r="R16">
-        <v>3888.761023001904</v>
+        <v>225.137028382308</v>
       </c>
       <c r="S16">
-        <v>0.07869906052517778</v>
+        <v>0.009759441600012117</v>
       </c>
       <c r="T16">
-        <v>0.07869906052517778</v>
+        <v>0.009759441600012119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H17">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N17">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O17">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P17">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q17">
-        <v>97.98715510909966</v>
+        <v>109.2343256357757</v>
       </c>
       <c r="R17">
-        <v>881.884395981897</v>
+        <v>983.108930721981</v>
       </c>
       <c r="S17">
-        <v>0.01784719427217813</v>
+        <v>0.04261668666754733</v>
       </c>
       <c r="T17">
-        <v>0.01784719427217813</v>
+        <v>0.04261668666754734</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H18">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.524507</v>
       </c>
       <c r="O18">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P18">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q18">
-        <v>246.5157633709843</v>
+        <v>197.5501310746579</v>
       </c>
       <c r="R18">
-        <v>2218.641870338859</v>
+        <v>1777.951179671921</v>
       </c>
       <c r="S18">
-        <v>0.04489991280120018</v>
+        <v>0.07707222055101232</v>
       </c>
       <c r="T18">
-        <v>0.04489991280120019</v>
+        <v>0.07707222055101233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H19">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N19">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O19">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P19">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q19">
-        <v>186.3463943270557</v>
+        <v>68.23452632868857</v>
       </c>
       <c r="R19">
-        <v>1677.117548943501</v>
+        <v>614.1107369581971</v>
       </c>
       <c r="S19">
-        <v>0.03394077823539165</v>
+        <v>0.02662102238955778</v>
       </c>
       <c r="T19">
-        <v>0.03394077823539166</v>
+        <v>0.02662102238955778</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H20">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N20">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O20">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P20">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q20">
-        <v>31.377451627795</v>
+        <v>55.08905724844944</v>
       </c>
       <c r="R20">
-        <v>282.397064650155</v>
+        <v>495.801515236045</v>
       </c>
       <c r="S20">
-        <v>0.00571502942751651</v>
+        <v>0.02149244825656561</v>
       </c>
       <c r="T20">
-        <v>0.005715029427516512</v>
+        <v>0.02149244825656561</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H21">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N21">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O21">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P21">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q21">
-        <v>159.824402848208</v>
+        <v>23.716763012353</v>
       </c>
       <c r="R21">
-        <v>1438.419625633872</v>
+        <v>213.450867111177</v>
       </c>
       <c r="S21">
-        <v>0.02911011309483293</v>
+        <v>0.009252859411940166</v>
       </c>
       <c r="T21">
-        <v>0.02911011309483294</v>
+        <v>0.009252859411940166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H22">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.261960333333333</v>
+        <v>1.755509</v>
       </c>
       <c r="N22">
-        <v>3.785881</v>
+        <v>5.266527</v>
       </c>
       <c r="O22">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="P22">
-        <v>0.1357066639443231</v>
+        <v>0.2406971255019411</v>
       </c>
       <c r="Q22">
-        <v>166.9207666079764</v>
+        <v>100.6068930400263</v>
       </c>
       <c r="R22">
-        <v>1502.286899471787</v>
+        <v>905.462037360237</v>
       </c>
       <c r="S22">
-        <v>0.03040263130811934</v>
+        <v>0.03925077957251587</v>
       </c>
       <c r="T22">
-        <v>0.03040263130811933</v>
+        <v>0.03925077957251588</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H23">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.524507</v>
       </c>
       <c r="O23">
-        <v>0.3414103799576249</v>
+        <v>0.4353004279144712</v>
       </c>
       <c r="P23">
-        <v>0.341410379957625</v>
+        <v>0.4353004279144713</v>
       </c>
       <c r="Q23">
-        <v>419.9387170391877</v>
+        <v>181.9474308226241</v>
       </c>
       <c r="R23">
-        <v>3779.448453352689</v>
+        <v>1637.526877403617</v>
       </c>
       <c r="S23">
-        <v>0.07648684010738893</v>
+        <v>0.07098498209425005</v>
       </c>
       <c r="T23">
-        <v>0.07648684010738895</v>
+        <v>0.07098498209425007</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H24">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>2.399924333333333</v>
+        <v>1.096599666666667</v>
       </c>
       <c r="N24">
-        <v>7.199773</v>
+        <v>3.289799</v>
       </c>
       <c r="O24">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="P24">
-        <v>0.258079209300665</v>
+        <v>0.150354334607828</v>
       </c>
       <c r="Q24">
-        <v>317.4404130936524</v>
+        <v>62.84529750178545</v>
       </c>
       <c r="R24">
-        <v>2856.963717842872</v>
+        <v>565.6076775160691</v>
       </c>
       <c r="S24">
-        <v>0.05781799375657931</v>
+        <v>0.02451846831638444</v>
       </c>
       <c r="T24">
-        <v>0.05781799375657932</v>
+        <v>0.02451846831638444</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H25">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.404105</v>
+        <v>0.8853383333333333</v>
       </c>
       <c r="N25">
-        <v>1.212315</v>
+        <v>2.656015</v>
       </c>
       <c r="O25">
-        <v>0.04345599460195976</v>
+        <v>0.1213883790570214</v>
       </c>
       <c r="P25">
-        <v>0.04345599460195978</v>
+        <v>0.1213883790570215</v>
       </c>
       <c r="Q25">
-        <v>53.45137609194501</v>
+        <v>50.73807027244056</v>
       </c>
       <c r="R25">
-        <v>481.0623848275051</v>
+        <v>456.642632451965</v>
       </c>
       <c r="S25">
-        <v>0.009735532092610065</v>
+        <v>0.0197949539243406</v>
       </c>
       <c r="T25">
-        <v>0.009735532092610067</v>
+        <v>0.01979495392434061</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H26">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.058352</v>
+        <v>0.381153</v>
       </c>
       <c r="N26">
-        <v>6.175056</v>
+        <v>1.143459</v>
       </c>
       <c r="O26">
-        <v>0.2213477521954271</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="P26">
-        <v>0.2213477521954272</v>
+        <v>0.0522597329187383</v>
       </c>
       <c r="Q26">
-        <v>272.260295917168</v>
+        <v>21.843590151281</v>
       </c>
       <c r="R26">
-        <v>2450.342663254512</v>
+        <v>196.592311361529</v>
       </c>
       <c r="S26">
-        <v>0.0495889730488069</v>
+        <v>0.008522059634216142</v>
       </c>
       <c r="T26">
-        <v>0.0495889730488069</v>
+        <v>0.008522059634216143</v>
       </c>
     </row>
   </sheetData>
